--- a/Data/周期ゲイン調整表.xlsx
+++ b/Data/周期ゲイン調整表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wtcuac-my.sharepoint.com/personal/g2112086_tcu_ac_jp/Documents/研究室/1機体でのけん引/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steam\Documents\GitHub\drone\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A80A56-6B92-40A4-BBBE-E3C657961E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42A7CB3-5440-4D57-8A70-7EEBF928B53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B52D7A71-D2B5-40C6-942F-BF97A52D6114}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>ロールピッチ</t>
     <phoneticPr fontId="1"/>
@@ -52,40 +52,114 @@
     <t>1000</t>
   </si>
   <si>
-    <t>950</t>
+    <t>800</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>列1</t>
   </si>
   <si>
     <t>900</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6002</t>
+  </si>
+  <si>
+    <t>5003</t>
+  </si>
+  <si>
+    <t>4004</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>列6</t>
+  </si>
+  <si>
+    <t>ごみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30sgood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50ssoso</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50sgood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50smoregood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80sgood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひっくり返った</t>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>600_9sは0.8で兆しあり</t>
+    <rPh sb="11" eb="12">
+      <t>キザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>600_11sは0.8では周期長すぎっぽい．</t>
+    <rPh sb="13" eb="15">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑xyはかなり良い</t>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -156,18 +230,41 @@
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{71297679-91B2-4449-9FB6-FD1DDBA96281}" name="↓周期/ロールピッチ→"/>
     <tableColumn id="2" xr3:uid="{D9FD4389-3228-4DAD-90AD-552B307B91A4}" name="1000"/>
-    <tableColumn id="3" xr3:uid="{4F5E156A-7971-423E-BDE5-C5A6D57D6C29}" name="950"/>
-    <tableColumn id="4" xr3:uid="{E5B9DAFB-9EC7-4793-8C02-D7CBC1434FB6}" name="900"/>
-    <tableColumn id="5" xr3:uid="{D04A6C1C-6E84-4184-9F20-B8F3797BD6A4}" name="850"/>
-    <tableColumn id="6" xr3:uid="{C553FFAC-2630-47B6-B6A9-04DB7E30A9D9}" name="800"/>
-    <tableColumn id="7" xr3:uid="{16643873-CB84-4B02-854B-E90CE746DB12}" name="750"/>
-    <tableColumn id="8" xr3:uid="{87E561A3-5D88-4C2D-869B-2AC2F9A8F0F3}" name="700"/>
-    <tableColumn id="9" xr3:uid="{FB8D1454-B699-4AF5-BBB3-86D4FF247CF2}" name="650"/>
-    <tableColumn id="10" xr3:uid="{4734C214-3C8B-4502-8D42-E80105B34EC0}" name="600"/>
-    <tableColumn id="11" xr3:uid="{AEF36568-3929-4AF1-8AC8-FAD7FFECA1CB}" name="550"/>
-    <tableColumn id="12" xr3:uid="{D22D5A93-236F-4658-BA67-CE2E36E09A5B}" name="500"/>
-    <tableColumn id="13" xr3:uid="{20ACDB09-7261-4A60-9B46-14D5C798ECC4}" name="450"/>
-    <tableColumn id="14" xr3:uid="{243659B9-46D2-41EF-A4F8-A53EEE5081CA}" name="400"/>
+    <tableColumn id="3" xr3:uid="{4F5E156A-7971-423E-BDE5-C5A6D57D6C29}" name="900"/>
+    <tableColumn id="4" xr3:uid="{E5B9DAFB-9EC7-4793-8C02-D7CBC1434FB6}" name="800"/>
+    <tableColumn id="5" xr3:uid="{D04A6C1C-6E84-4184-9F20-B8F3797BD6A4}" name="700"/>
+    <tableColumn id="6" xr3:uid="{C553FFAC-2630-47B6-B6A9-04DB7E30A9D9}" name="600"/>
+    <tableColumn id="7" xr3:uid="{16643873-CB84-4B02-854B-E90CE746DB12}" name="500"/>
+    <tableColumn id="8" xr3:uid="{87E561A3-5D88-4C2D-869B-2AC2F9A8F0F3}" name="400"/>
+    <tableColumn id="9" xr3:uid="{FB8D1454-B699-4AF5-BBB3-86D4FF247CF2}" name="列1"/>
+    <tableColumn id="10" xr3:uid="{4734C214-3C8B-4502-8D42-E80105B34EC0}" name="列2"/>
+    <tableColumn id="11" xr3:uid="{AEF36568-3929-4AF1-8AC8-FAD7FFECA1CB}" name="列3"/>
+    <tableColumn id="12" xr3:uid="{D22D5A93-236F-4658-BA67-CE2E36E09A5B}" name="列4"/>
+    <tableColumn id="13" xr3:uid="{20ACDB09-7261-4A60-9B46-14D5C798ECC4}" name="列5"/>
+    <tableColumn id="14" xr3:uid="{243659B9-46D2-41EF-A4F8-A53EEE5081CA}" name="列6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E2952BB-03E8-40FE-B21F-0B68C0ACED35}" name="テーブル13" displayName="テーブル13" ref="A13:N21" totalsRowShown="0">
+  <autoFilter ref="A13:N21" xr:uid="{4E2952BB-03E8-40FE-B21F-0B68C0ACED35}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{AA534D13-AAE8-4BA1-A92B-214BE8F90ACE}" name="↓周期/ロールピッチ→"/>
+    <tableColumn id="2" xr3:uid="{476B0145-628D-45DA-9F4D-EEF2B8C986B6}" name="1000"/>
+    <tableColumn id="3" xr3:uid="{AA7D87E1-C9C4-40CD-BF70-DA92563A8636}" name="900"/>
+    <tableColumn id="4" xr3:uid="{DD7837B4-31BA-4E3F-857F-EE24D81B121E}" name="800"/>
+    <tableColumn id="5" xr3:uid="{852E41A3-A72E-4781-94A8-000E10452319}" name="700"/>
+    <tableColumn id="6" xr3:uid="{07CC6F72-F910-49B3-B381-6D14D2842631}" name="600"/>
+    <tableColumn id="7" xr3:uid="{2ECFE881-E7D8-4E0B-A74C-DFEB4700184C}" name="500"/>
+    <tableColumn id="8" xr3:uid="{23AB55AD-98FF-4ED0-AAAB-D406FFC5B397}" name="400"/>
+    <tableColumn id="9" xr3:uid="{EDF1C922-0073-439B-8E90-D3A2D2D5B838}" name="650"/>
+    <tableColumn id="10" xr3:uid="{E8AF5F7F-1DF4-4E3C-81AE-C0E1E79C8EB7}" name="6002"/>
+    <tableColumn id="11" xr3:uid="{D63283FF-280B-49DE-87AB-A32E729DD74C}" name="550"/>
+    <tableColumn id="12" xr3:uid="{4C4644ED-A9E7-458C-9DBA-7759B27417AB}" name="5003"/>
+    <tableColumn id="13" xr3:uid="{10C96060-FFB8-40C5-B01B-C5B368784A2B}" name="450"/>
+    <tableColumn id="14" xr3:uid="{6960B844-A0CF-4051-AA3D-786838FE0A2B}" name="4004"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F67C42-3AD0-48C5-84C7-214567421E2B}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,46 +611,52 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>15</v>
       </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -564,6 +667,12 @@
       <c r="A5">
         <v>13</v>
       </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -574,6 +683,12 @@
       <c r="A7">
         <v>11</v>
       </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -584,17 +699,292 @@
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>27</v>
+      </c>
+      <c r="H17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+      <c r="G19">
+        <v>41</v>
+      </c>
+      <c r="H19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>46</v>
+      </c>
+      <c r="F20">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>48</v>
+      </c>
+      <c r="H20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>54</v>
+      </c>
+      <c r="G21">
+        <v>55</v>
+      </c>
+      <c r="H21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>